--- a/download/bulkUserCredentialForMcqExamwithContentSection.xlsx
+++ b/download/bulkUserCredentialForMcqExamwithContentSection.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,175 +41,190 @@
     <t>Role</t>
   </si>
   <si>
-    <t>hVmZK609</t>
-  </si>
-  <si>
-    <t>aapafmm88</t>
-  </si>
-  <si>
-    <t>r4YwP&amp;!7</t>
+    <t>WYOMj984</t>
+  </si>
+  <si>
+    <t>emztodg95</t>
+  </si>
+  <si>
+    <t>r2t$KQ%4</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>AlwBqeBu</t>
-  </si>
-  <si>
-    <t>TLPz</t>
+    <t>paMwBcqk</t>
+  </si>
+  <si>
+    <t>bKmk</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>zgWko720</t>
-  </si>
-  <si>
-    <t>qzmxrfj96</t>
-  </si>
-  <si>
-    <t>f3n%DB7&amp;</t>
-  </si>
-  <si>
-    <t>aSoMBaxf</t>
-  </si>
-  <si>
-    <t>eCnz</t>
-  </si>
-  <si>
-    <t>VunIm462</t>
-  </si>
-  <si>
-    <t>khylfuf87</t>
-  </si>
-  <si>
-    <t>n3!$B9Ck</t>
-  </si>
-  <si>
-    <t>AWwsytpU</t>
-  </si>
-  <si>
-    <t>sbIZ</t>
-  </si>
-  <si>
-    <t>dFZKb435</t>
-  </si>
-  <si>
-    <t>rfwcuxi25</t>
-  </si>
-  <si>
-    <t>f#9dV2P$</t>
-  </si>
-  <si>
-    <t>bMzQAsRn</t>
-  </si>
-  <si>
-    <t>xAcf</t>
-  </si>
-  <si>
-    <t>DVLSM786</t>
-  </si>
-  <si>
-    <t>hdmhzdm57</t>
-  </si>
-  <si>
-    <t>sQN4#q6&amp;</t>
-  </si>
-  <si>
-    <t>UlcbCZyA</t>
-  </si>
-  <si>
-    <t>xfte</t>
-  </si>
-  <si>
-    <t>mRBDe283</t>
-  </si>
-  <si>
-    <t>kdppqjz66</t>
-  </si>
-  <si>
-    <t>cY7hM4$!</t>
-  </si>
-  <si>
-    <t>tPICUQuU</t>
-  </si>
-  <si>
-    <t>SaYX</t>
-  </si>
-  <si>
-    <t>slDXw304</t>
-  </si>
-  <si>
-    <t>sokpfyu22</t>
-  </si>
-  <si>
-    <t>Xy#7qN$2</t>
-  </si>
-  <si>
-    <t>StolXmOX</t>
-  </si>
-  <si>
-    <t>sXvd</t>
-  </si>
-  <si>
-    <t>UggLM477</t>
-  </si>
-  <si>
-    <t>qepbchk34</t>
-  </si>
-  <si>
-    <t>J8k&amp;C5%a</t>
-  </si>
-  <si>
-    <t>HcSaREPy</t>
-  </si>
-  <si>
-    <t>PAuT</t>
-  </si>
-  <si>
-    <t>BJCZu944</t>
-  </si>
-  <si>
-    <t>sdlzvtp63</t>
-  </si>
-  <si>
-    <t>Rdk$82U#</t>
-  </si>
-  <si>
-    <t>GbgBwrmY</t>
-  </si>
-  <si>
-    <t>xEeZ</t>
-  </si>
-  <si>
-    <t>vqQaW890</t>
-  </si>
-  <si>
-    <t>nngsduf77</t>
-  </si>
-  <si>
-    <t>tT$x%X56</t>
-  </si>
-  <si>
-    <t>lybhwibl</t>
-  </si>
-  <si>
-    <t>ZunJ</t>
-  </si>
-  <si>
-    <t>nVMwW363</t>
-  </si>
-  <si>
-    <t>ddpuopx54</t>
-  </si>
-  <si>
-    <t>M!&amp;9gHr5</t>
-  </si>
-  <si>
-    <t>QjPcSzfp</t>
-  </si>
-  <si>
-    <t>okcs</t>
+    <t>DqjQI924</t>
+  </si>
+  <si>
+    <t>lqutyix61</t>
+  </si>
+  <si>
+    <t>Th#V3%7z</t>
+  </si>
+  <si>
+    <t>sYexdNzS</t>
+  </si>
+  <si>
+    <t>foOZ</t>
+  </si>
+  <si>
+    <t>WqNlL167</t>
+  </si>
+  <si>
+    <t>rczdvrk20</t>
+  </si>
+  <si>
+    <t>Nd2!4Ym%</t>
+  </si>
+  <si>
+    <t>UKAxbWAS</t>
+  </si>
+  <si>
+    <t>nHNN</t>
+  </si>
+  <si>
+    <t>OzBUq813</t>
+  </si>
+  <si>
+    <t>uvycwxq21</t>
+  </si>
+  <si>
+    <t>k!7h8$WJ</t>
+  </si>
+  <si>
+    <t>rOYqRUyH</t>
+  </si>
+  <si>
+    <t>AUYe</t>
+  </si>
+  <si>
+    <t>kQCsv913</t>
+  </si>
+  <si>
+    <t>imlavuu71</t>
+  </si>
+  <si>
+    <t>m%Vx28#J</t>
+  </si>
+  <si>
+    <t>ZyVimdzP</t>
+  </si>
+  <si>
+    <t>KcjA</t>
+  </si>
+  <si>
+    <t>wUTCV605</t>
+  </si>
+  <si>
+    <t>fofmdow86</t>
+  </si>
+  <si>
+    <t>R%H7du9&amp;</t>
+  </si>
+  <si>
+    <t>aEhXKuxB</t>
+  </si>
+  <si>
+    <t>AokR</t>
+  </si>
+  <si>
+    <t>QwrpS898</t>
+  </si>
+  <si>
+    <t>lcdfuky80</t>
+  </si>
+  <si>
+    <t>S6&amp;5eZ#c</t>
+  </si>
+  <si>
+    <t>QnJMtvnW</t>
+  </si>
+  <si>
+    <t>BZAg</t>
+  </si>
+  <si>
+    <t>qqjAA671</t>
+  </si>
+  <si>
+    <t>wligems53</t>
+  </si>
+  <si>
+    <t>D&amp;$mSz84</t>
+  </si>
+  <si>
+    <t>RYclXvcK</t>
+  </si>
+  <si>
+    <t>QNfz</t>
+  </si>
+  <si>
+    <t>RMfNC544</t>
+  </si>
+  <si>
+    <t>meibsyi12</t>
+  </si>
+  <si>
+    <t>J7p%N9$g</t>
+  </si>
+  <si>
+    <t>uzqGWExd</t>
+  </si>
+  <si>
+    <t>fWMF</t>
+  </si>
+  <si>
+    <t>fzGGt246</t>
+  </si>
+  <si>
+    <t>pqkazif30</t>
+  </si>
+  <si>
+    <t>A4&amp;h%3eG</t>
+  </si>
+  <si>
+    <t>naLWMFBq</t>
+  </si>
+  <si>
+    <t>ZchR</t>
+  </si>
+  <si>
+    <t>dBWRX203</t>
+  </si>
+  <si>
+    <t>sodfvpm25</t>
+  </si>
+  <si>
+    <t>js!%86QA</t>
+  </si>
+  <si>
+    <t>tHZZplYC</t>
+  </si>
+  <si>
+    <t>bKiC</t>
+  </si>
+  <si>
+    <t>VzfWr715</t>
+  </si>
+  <si>
+    <t>ibhdtxe48</t>
+  </si>
+  <si>
+    <t>s#U5$3vS</t>
+  </si>
+  <si>
+    <t>JphdKHHB</t>
+  </si>
+  <si>
+    <t>aEFl</t>
   </si>
 </sst>
 </file>
@@ -577,10 +592,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H12"/>
+      <selection activeCell="A1" sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -616,7 +631,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231004186</v>
+        <v>231006230</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -642,7 +657,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231004185</v>
+        <v>231006229</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -668,7 +683,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231004184</v>
+        <v>231006228</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -694,7 +709,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231004183</v>
+        <v>231006227</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -720,7 +735,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>231004182</v>
+        <v>231006226</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -746,7 +761,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>231004181</v>
+        <v>231006225</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -772,7 +787,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="2">
-        <v>231004180</v>
+        <v>231006223</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
@@ -798,7 +813,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>231004179</v>
+        <v>231006221</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
@@ -824,7 +839,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2">
-        <v>231004178</v>
+        <v>231006220</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>51</v>
@@ -850,7 +865,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="2">
-        <v>231004177</v>
+        <v>231006219</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>56</v>
@@ -876,7 +891,7 @@
         <v>60</v>
       </c>
       <c r="B12" s="2">
-        <v>231004176</v>
+        <v>231006218</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>61</v>
@@ -894,6 +909,32 @@
         <v>64</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2">
+        <v>231006217</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForMcqExamwithContentSection.xlsx
+++ b/download/bulkUserCredentialForMcqExamwithContentSection.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,190 +41,175 @@
     <t>Role</t>
   </si>
   <si>
-    <t>WYOMj984</t>
-  </si>
-  <si>
-    <t>emztodg95</t>
-  </si>
-  <si>
-    <t>r2t$KQ%4</t>
+    <t>hVmZK609</t>
+  </si>
+  <si>
+    <t>aapafmm88</t>
+  </si>
+  <si>
+    <t>r4YwP&amp;!7</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>paMwBcqk</t>
-  </si>
-  <si>
-    <t>bKmk</t>
+    <t>AlwBqeBu</t>
+  </si>
+  <si>
+    <t>TLPz</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>DqjQI924</t>
-  </si>
-  <si>
-    <t>lqutyix61</t>
-  </si>
-  <si>
-    <t>Th#V3%7z</t>
-  </si>
-  <si>
-    <t>sYexdNzS</t>
-  </si>
-  <si>
-    <t>foOZ</t>
-  </si>
-  <si>
-    <t>WqNlL167</t>
-  </si>
-  <si>
-    <t>rczdvrk20</t>
-  </si>
-  <si>
-    <t>Nd2!4Ym%</t>
-  </si>
-  <si>
-    <t>UKAxbWAS</t>
-  </si>
-  <si>
-    <t>nHNN</t>
-  </si>
-  <si>
-    <t>OzBUq813</t>
-  </si>
-  <si>
-    <t>uvycwxq21</t>
-  </si>
-  <si>
-    <t>k!7h8$WJ</t>
-  </si>
-  <si>
-    <t>rOYqRUyH</t>
-  </si>
-  <si>
-    <t>AUYe</t>
-  </si>
-  <si>
-    <t>kQCsv913</t>
-  </si>
-  <si>
-    <t>imlavuu71</t>
-  </si>
-  <si>
-    <t>m%Vx28#J</t>
-  </si>
-  <si>
-    <t>ZyVimdzP</t>
-  </si>
-  <si>
-    <t>KcjA</t>
-  </si>
-  <si>
-    <t>wUTCV605</t>
-  </si>
-  <si>
-    <t>fofmdow86</t>
-  </si>
-  <si>
-    <t>R%H7du9&amp;</t>
-  </si>
-  <si>
-    <t>aEhXKuxB</t>
-  </si>
-  <si>
-    <t>AokR</t>
-  </si>
-  <si>
-    <t>QwrpS898</t>
-  </si>
-  <si>
-    <t>lcdfuky80</t>
-  </si>
-  <si>
-    <t>S6&amp;5eZ#c</t>
-  </si>
-  <si>
-    <t>QnJMtvnW</t>
-  </si>
-  <si>
-    <t>BZAg</t>
-  </si>
-  <si>
-    <t>qqjAA671</t>
-  </si>
-  <si>
-    <t>wligems53</t>
-  </si>
-  <si>
-    <t>D&amp;$mSz84</t>
-  </si>
-  <si>
-    <t>RYclXvcK</t>
-  </si>
-  <si>
-    <t>QNfz</t>
-  </si>
-  <si>
-    <t>RMfNC544</t>
-  </si>
-  <si>
-    <t>meibsyi12</t>
-  </si>
-  <si>
-    <t>J7p%N9$g</t>
-  </si>
-  <si>
-    <t>uzqGWExd</t>
-  </si>
-  <si>
-    <t>fWMF</t>
-  </si>
-  <si>
-    <t>fzGGt246</t>
-  </si>
-  <si>
-    <t>pqkazif30</t>
-  </si>
-  <si>
-    <t>A4&amp;h%3eG</t>
-  </si>
-  <si>
-    <t>naLWMFBq</t>
-  </si>
-  <si>
-    <t>ZchR</t>
-  </si>
-  <si>
-    <t>dBWRX203</t>
-  </si>
-  <si>
-    <t>sodfvpm25</t>
-  </si>
-  <si>
-    <t>js!%86QA</t>
-  </si>
-  <si>
-    <t>tHZZplYC</t>
-  </si>
-  <si>
-    <t>bKiC</t>
-  </si>
-  <si>
-    <t>VzfWr715</t>
-  </si>
-  <si>
-    <t>ibhdtxe48</t>
-  </si>
-  <si>
-    <t>s#U5$3vS</t>
-  </si>
-  <si>
-    <t>JphdKHHB</t>
-  </si>
-  <si>
-    <t>aEFl</t>
+    <t>zgWko720</t>
+  </si>
+  <si>
+    <t>qzmxrfj96</t>
+  </si>
+  <si>
+    <t>f3n%DB7&amp;</t>
+  </si>
+  <si>
+    <t>aSoMBaxf</t>
+  </si>
+  <si>
+    <t>eCnz</t>
+  </si>
+  <si>
+    <t>VunIm462</t>
+  </si>
+  <si>
+    <t>khylfuf87</t>
+  </si>
+  <si>
+    <t>n3!$B9Ck</t>
+  </si>
+  <si>
+    <t>AWwsytpU</t>
+  </si>
+  <si>
+    <t>sbIZ</t>
+  </si>
+  <si>
+    <t>dFZKb435</t>
+  </si>
+  <si>
+    <t>rfwcuxi25</t>
+  </si>
+  <si>
+    <t>f#9dV2P$</t>
+  </si>
+  <si>
+    <t>bMzQAsRn</t>
+  </si>
+  <si>
+    <t>xAcf</t>
+  </si>
+  <si>
+    <t>DVLSM786</t>
+  </si>
+  <si>
+    <t>hdmhzdm57</t>
+  </si>
+  <si>
+    <t>sQN4#q6&amp;</t>
+  </si>
+  <si>
+    <t>UlcbCZyA</t>
+  </si>
+  <si>
+    <t>xfte</t>
+  </si>
+  <si>
+    <t>mRBDe283</t>
+  </si>
+  <si>
+    <t>kdppqjz66</t>
+  </si>
+  <si>
+    <t>cY7hM4$!</t>
+  </si>
+  <si>
+    <t>tPICUQuU</t>
+  </si>
+  <si>
+    <t>SaYX</t>
+  </si>
+  <si>
+    <t>slDXw304</t>
+  </si>
+  <si>
+    <t>sokpfyu22</t>
+  </si>
+  <si>
+    <t>Xy#7qN$2</t>
+  </si>
+  <si>
+    <t>StolXmOX</t>
+  </si>
+  <si>
+    <t>sXvd</t>
+  </si>
+  <si>
+    <t>UggLM477</t>
+  </si>
+  <si>
+    <t>qepbchk34</t>
+  </si>
+  <si>
+    <t>J8k&amp;C5%a</t>
+  </si>
+  <si>
+    <t>HcSaREPy</t>
+  </si>
+  <si>
+    <t>PAuT</t>
+  </si>
+  <si>
+    <t>BJCZu944</t>
+  </si>
+  <si>
+    <t>sdlzvtp63</t>
+  </si>
+  <si>
+    <t>Rdk$82U#</t>
+  </si>
+  <si>
+    <t>GbgBwrmY</t>
+  </si>
+  <si>
+    <t>xEeZ</t>
+  </si>
+  <si>
+    <t>vqQaW890</t>
+  </si>
+  <si>
+    <t>nngsduf77</t>
+  </si>
+  <si>
+    <t>tT$x%X56</t>
+  </si>
+  <si>
+    <t>lybhwibl</t>
+  </si>
+  <si>
+    <t>ZunJ</t>
+  </si>
+  <si>
+    <t>nVMwW363</t>
+  </si>
+  <si>
+    <t>ddpuopx54</t>
+  </si>
+  <si>
+    <t>M!&amp;9gHr5</t>
+  </si>
+  <si>
+    <t>QjPcSzfp</t>
+  </si>
+  <si>
+    <t>okcs</t>
   </si>
 </sst>
 </file>
@@ -592,10 +577,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H13"/>
+      <selection activeCell="A1" sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -631,7 +616,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231006230</v>
+        <v>231004186</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -657,7 +642,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231006229</v>
+        <v>231004185</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -683,7 +668,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231006228</v>
+        <v>231004184</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -709,7 +694,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231006227</v>
+        <v>231004183</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -735,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>231006226</v>
+        <v>231004182</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -761,7 +746,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>231006225</v>
+        <v>231004181</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -787,7 +772,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="2">
-        <v>231006223</v>
+        <v>231004180</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
@@ -813,7 +798,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>231006221</v>
+        <v>231004179</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
@@ -839,7 +824,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2">
-        <v>231006220</v>
+        <v>231004178</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>51</v>
@@ -865,7 +850,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="2">
-        <v>231006219</v>
+        <v>231004177</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>56</v>
@@ -891,7 +876,7 @@
         <v>60</v>
       </c>
       <c r="B12" s="2">
-        <v>231006218</v>
+        <v>231004176</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>61</v>
@@ -909,32 +894,6 @@
         <v>64</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="2">
-        <v>231006217</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForMcqExamwithContentSection.xlsx
+++ b/download/bulkUserCredentialForMcqExamwithContentSection.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,175 +41,220 @@
     <t>Role</t>
   </si>
   <si>
-    <t>hVmZK609</t>
-  </si>
-  <si>
-    <t>aapafmm88</t>
-  </si>
-  <si>
-    <t>r4YwP&amp;!7</t>
+    <t>qfwoq293</t>
+  </si>
+  <si>
+    <t>dryduis30</t>
+  </si>
+  <si>
+    <t>xM8d4A$#</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>AlwBqeBu</t>
-  </si>
-  <si>
-    <t>TLPz</t>
+    <t>sHxFDoDV</t>
+  </si>
+  <si>
+    <t>XNjp</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>zgWko720</t>
-  </si>
-  <si>
-    <t>qzmxrfj96</t>
-  </si>
-  <si>
-    <t>f3n%DB7&amp;</t>
-  </si>
-  <si>
-    <t>aSoMBaxf</t>
-  </si>
-  <si>
-    <t>eCnz</t>
-  </si>
-  <si>
-    <t>VunIm462</t>
-  </si>
-  <si>
-    <t>khylfuf87</t>
-  </si>
-  <si>
-    <t>n3!$B9Ck</t>
-  </si>
-  <si>
-    <t>AWwsytpU</t>
-  </si>
-  <si>
-    <t>sbIZ</t>
-  </si>
-  <si>
-    <t>dFZKb435</t>
-  </si>
-  <si>
-    <t>rfwcuxi25</t>
-  </si>
-  <si>
-    <t>f#9dV2P$</t>
-  </si>
-  <si>
-    <t>bMzQAsRn</t>
-  </si>
-  <si>
-    <t>xAcf</t>
-  </si>
-  <si>
-    <t>DVLSM786</t>
-  </si>
-  <si>
-    <t>hdmhzdm57</t>
-  </si>
-  <si>
-    <t>sQN4#q6&amp;</t>
-  </si>
-  <si>
-    <t>UlcbCZyA</t>
-  </si>
-  <si>
-    <t>xfte</t>
-  </si>
-  <si>
-    <t>mRBDe283</t>
-  </si>
-  <si>
-    <t>kdppqjz66</t>
-  </si>
-  <si>
-    <t>cY7hM4$!</t>
-  </si>
-  <si>
-    <t>tPICUQuU</t>
-  </si>
-  <si>
-    <t>SaYX</t>
-  </si>
-  <si>
-    <t>slDXw304</t>
-  </si>
-  <si>
-    <t>sokpfyu22</t>
-  </si>
-  <si>
-    <t>Xy#7qN$2</t>
-  </si>
-  <si>
-    <t>StolXmOX</t>
-  </si>
-  <si>
-    <t>sXvd</t>
-  </si>
-  <si>
-    <t>UggLM477</t>
-  </si>
-  <si>
-    <t>qepbchk34</t>
-  </si>
-  <si>
-    <t>J8k&amp;C5%a</t>
-  </si>
-  <si>
-    <t>HcSaREPy</t>
-  </si>
-  <si>
-    <t>PAuT</t>
-  </si>
-  <si>
-    <t>BJCZu944</t>
-  </si>
-  <si>
-    <t>sdlzvtp63</t>
-  </si>
-  <si>
-    <t>Rdk$82U#</t>
-  </si>
-  <si>
-    <t>GbgBwrmY</t>
-  </si>
-  <si>
-    <t>xEeZ</t>
-  </si>
-  <si>
-    <t>vqQaW890</t>
-  </si>
-  <si>
-    <t>nngsduf77</t>
-  </si>
-  <si>
-    <t>tT$x%X56</t>
-  </si>
-  <si>
-    <t>lybhwibl</t>
-  </si>
-  <si>
-    <t>ZunJ</t>
-  </si>
-  <si>
-    <t>nVMwW363</t>
-  </si>
-  <si>
-    <t>ddpuopx54</t>
-  </si>
-  <si>
-    <t>M!&amp;9gHr5</t>
-  </si>
-  <si>
-    <t>QjPcSzfp</t>
-  </si>
-  <si>
-    <t>okcs</t>
+    <t>Gnzrc374</t>
+  </si>
+  <si>
+    <t>ghhwpjt89</t>
+  </si>
+  <si>
+    <t>R4!E&amp;ge6</t>
+  </si>
+  <si>
+    <t>hTAAMPQQ</t>
+  </si>
+  <si>
+    <t>Wygx</t>
+  </si>
+  <si>
+    <t>oKQVi213</t>
+  </si>
+  <si>
+    <t>qxzmswk97</t>
+  </si>
+  <si>
+    <t>z#7qK5%Z</t>
+  </si>
+  <si>
+    <t>qSxbOOcp</t>
+  </si>
+  <si>
+    <t>XJDD</t>
+  </si>
+  <si>
+    <t>StiUU984</t>
+  </si>
+  <si>
+    <t>zmdjric82</t>
+  </si>
+  <si>
+    <t>jqB%T79!</t>
+  </si>
+  <si>
+    <t>ydFHZsTK</t>
+  </si>
+  <si>
+    <t>NUIm</t>
+  </si>
+  <si>
+    <t>zezyW344</t>
+  </si>
+  <si>
+    <t>sjncgxx74</t>
+  </si>
+  <si>
+    <t>u!6#p8CK</t>
+  </si>
+  <si>
+    <t>xdhzjxyb</t>
+  </si>
+  <si>
+    <t>qBTU</t>
+  </si>
+  <si>
+    <t>zQKYj409</t>
+  </si>
+  <si>
+    <t>exgkopa11</t>
+  </si>
+  <si>
+    <t>pv5#%Z7E</t>
+  </si>
+  <si>
+    <t>RZRkSMCD</t>
+  </si>
+  <si>
+    <t>ZEiB</t>
+  </si>
+  <si>
+    <t>sdvdz650</t>
+  </si>
+  <si>
+    <t>qbljmxe43</t>
+  </si>
+  <si>
+    <t>Qk%6&amp;e2E</t>
+  </si>
+  <si>
+    <t>DGVBCXrr</t>
+  </si>
+  <si>
+    <t>wLFL</t>
+  </si>
+  <si>
+    <t>VPuqO795</t>
+  </si>
+  <si>
+    <t>ugoeyxi89</t>
+  </si>
+  <si>
+    <t>F%9!V7bu</t>
+  </si>
+  <si>
+    <t>WpeBGHGN</t>
+  </si>
+  <si>
+    <t>XueW</t>
+  </si>
+  <si>
+    <t>lFyII457</t>
+  </si>
+  <si>
+    <t>pmndxre61</t>
+  </si>
+  <si>
+    <t>Mh3Xq%7$</t>
+  </si>
+  <si>
+    <t>JzGREcIy</t>
+  </si>
+  <si>
+    <t>RbaQ</t>
+  </si>
+  <si>
+    <t>BQvSQ295</t>
+  </si>
+  <si>
+    <t>vtmvvvk82</t>
+  </si>
+  <si>
+    <t>B6nX!3%u</t>
+  </si>
+  <si>
+    <t>xfPmOWFo</t>
+  </si>
+  <si>
+    <t>DaKC</t>
+  </si>
+  <si>
+    <t>cqTCl395</t>
+  </si>
+  <si>
+    <t>qunwrpt14</t>
+  </si>
+  <si>
+    <t>wV6!t$W4</t>
+  </si>
+  <si>
+    <t>AJQkLcVZ</t>
+  </si>
+  <si>
+    <t>dtJa</t>
+  </si>
+  <si>
+    <t>ifjqc544</t>
+  </si>
+  <si>
+    <t>ccnqbky58</t>
+  </si>
+  <si>
+    <t>arV#2E%8</t>
+  </si>
+  <si>
+    <t>AtxritWN</t>
+  </si>
+  <si>
+    <t>czkw</t>
+  </si>
+  <si>
+    <t>VhclZ700</t>
+  </si>
+  <si>
+    <t>mprggfi15</t>
+  </si>
+  <si>
+    <t>a9%Vh2E&amp;</t>
+  </si>
+  <si>
+    <t>PvIVneGS</t>
+  </si>
+  <si>
+    <t>YcRZ</t>
+  </si>
+  <si>
+    <t>Zxdni552</t>
+  </si>
+  <si>
+    <t>zfnakcf63</t>
+  </si>
+  <si>
+    <t>y!c6%9RP</t>
+  </si>
+  <si>
+    <t>gLWdkwgL</t>
+  </si>
+  <si>
+    <t>DxBa</t>
   </si>
 </sst>
 </file>
@@ -577,10 +622,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H12"/>
+      <selection activeCell="A1" sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -616,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231004186</v>
+        <v>231011212</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -642,7 +687,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231004185</v>
+        <v>231011211</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -668,7 +713,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231004184</v>
+        <v>231011210</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -694,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231004183</v>
+        <v>231011209</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -720,7 +765,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>231004182</v>
+        <v>231011208</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -746,7 +791,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>231004181</v>
+        <v>231011207</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -772,7 +817,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="2">
-        <v>231004180</v>
+        <v>231011206</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
@@ -798,7 +843,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>231004179</v>
+        <v>231011205</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
@@ -824,7 +869,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2">
-        <v>231004178</v>
+        <v>231011204</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>51</v>
@@ -850,7 +895,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="2">
-        <v>231004177</v>
+        <v>231011203</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>56</v>
@@ -876,7 +921,7 @@
         <v>60</v>
       </c>
       <c r="B12" s="2">
-        <v>231004176</v>
+        <v>231011202</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>61</v>
@@ -894,6 +939,84 @@
         <v>64</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2">
+        <v>231011201</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2">
+        <v>231011200</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2">
+        <v>231011199</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForMcqExamwithContentSection.xlsx
+++ b/download/bulkUserCredentialForMcqExamwithContentSection.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,220 +41,205 @@
     <t>Role</t>
   </si>
   <si>
-    <t>qfwoq293</t>
-  </si>
-  <si>
-    <t>dryduis30</t>
-  </si>
-  <si>
-    <t>xM8d4A$#</t>
+    <t>wHzCP787</t>
+  </si>
+  <si>
+    <t>qmlznnr19</t>
+  </si>
+  <si>
+    <t>Wb9%G!m3</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>sHxFDoDV</t>
-  </si>
-  <si>
-    <t>XNjp</t>
+    <t>jOcWgytr</t>
+  </si>
+  <si>
+    <t>Xcmq</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>Gnzrc374</t>
-  </si>
-  <si>
-    <t>ghhwpjt89</t>
-  </si>
-  <si>
-    <t>R4!E&amp;ge6</t>
-  </si>
-  <si>
-    <t>hTAAMPQQ</t>
-  </si>
-  <si>
-    <t>Wygx</t>
-  </si>
-  <si>
-    <t>oKQVi213</t>
-  </si>
-  <si>
-    <t>qxzmswk97</t>
-  </si>
-  <si>
-    <t>z#7qK5%Z</t>
-  </si>
-  <si>
-    <t>qSxbOOcp</t>
-  </si>
-  <si>
-    <t>XJDD</t>
-  </si>
-  <si>
-    <t>StiUU984</t>
-  </si>
-  <si>
-    <t>zmdjric82</t>
-  </si>
-  <si>
-    <t>jqB%T79!</t>
-  </si>
-  <si>
-    <t>ydFHZsTK</t>
-  </si>
-  <si>
-    <t>NUIm</t>
-  </si>
-  <si>
-    <t>zezyW344</t>
-  </si>
-  <si>
-    <t>sjncgxx74</t>
-  </si>
-  <si>
-    <t>u!6#p8CK</t>
-  </si>
-  <si>
-    <t>xdhzjxyb</t>
-  </si>
-  <si>
-    <t>qBTU</t>
-  </si>
-  <si>
-    <t>zQKYj409</t>
-  </si>
-  <si>
-    <t>exgkopa11</t>
-  </si>
-  <si>
-    <t>pv5#%Z7E</t>
-  </si>
-  <si>
-    <t>RZRkSMCD</t>
-  </si>
-  <si>
-    <t>ZEiB</t>
-  </si>
-  <si>
-    <t>sdvdz650</t>
-  </si>
-  <si>
-    <t>qbljmxe43</t>
-  </si>
-  <si>
-    <t>Qk%6&amp;e2E</t>
-  </si>
-  <si>
-    <t>DGVBCXrr</t>
-  </si>
-  <si>
-    <t>wLFL</t>
-  </si>
-  <si>
-    <t>VPuqO795</t>
-  </si>
-  <si>
-    <t>ugoeyxi89</t>
-  </si>
-  <si>
-    <t>F%9!V7bu</t>
-  </si>
-  <si>
-    <t>WpeBGHGN</t>
-  </si>
-  <si>
-    <t>XueW</t>
-  </si>
-  <si>
-    <t>lFyII457</t>
-  </si>
-  <si>
-    <t>pmndxre61</t>
-  </si>
-  <si>
-    <t>Mh3Xq%7$</t>
-  </si>
-  <si>
-    <t>JzGREcIy</t>
-  </si>
-  <si>
-    <t>RbaQ</t>
-  </si>
-  <si>
-    <t>BQvSQ295</t>
-  </si>
-  <si>
-    <t>vtmvvvk82</t>
-  </si>
-  <si>
-    <t>B6nX!3%u</t>
-  </si>
-  <si>
-    <t>xfPmOWFo</t>
-  </si>
-  <si>
-    <t>DaKC</t>
-  </si>
-  <si>
-    <t>cqTCl395</t>
-  </si>
-  <si>
-    <t>qunwrpt14</t>
-  </si>
-  <si>
-    <t>wV6!t$W4</t>
-  </si>
-  <si>
-    <t>AJQkLcVZ</t>
-  </si>
-  <si>
-    <t>dtJa</t>
-  </si>
-  <si>
-    <t>ifjqc544</t>
-  </si>
-  <si>
-    <t>ccnqbky58</t>
-  </si>
-  <si>
-    <t>arV#2E%8</t>
-  </si>
-  <si>
-    <t>AtxritWN</t>
-  </si>
-  <si>
-    <t>czkw</t>
-  </si>
-  <si>
-    <t>VhclZ700</t>
-  </si>
-  <si>
-    <t>mprggfi15</t>
-  </si>
-  <si>
-    <t>a9%Vh2E&amp;</t>
-  </si>
-  <si>
-    <t>PvIVneGS</t>
-  </si>
-  <si>
-    <t>YcRZ</t>
-  </si>
-  <si>
-    <t>Zxdni552</t>
-  </si>
-  <si>
-    <t>zfnakcf63</t>
-  </si>
-  <si>
-    <t>y!c6%9RP</t>
-  </si>
-  <si>
-    <t>gLWdkwgL</t>
-  </si>
-  <si>
-    <t>DxBa</t>
+    <t>GbKze769</t>
+  </si>
+  <si>
+    <t>hwuazkk64</t>
+  </si>
+  <si>
+    <t>q29#VQ!u</t>
+  </si>
+  <si>
+    <t>zbJvSuxA</t>
+  </si>
+  <si>
+    <t>EvAS</t>
+  </si>
+  <si>
+    <t>wyJnJ700</t>
+  </si>
+  <si>
+    <t>cbsegfy45</t>
+  </si>
+  <si>
+    <t>c92Z%!bK</t>
+  </si>
+  <si>
+    <t>gfPlNKBQ</t>
+  </si>
+  <si>
+    <t>tmsq</t>
+  </si>
+  <si>
+    <t>DKgWk194</t>
+  </si>
+  <si>
+    <t>rxcurlr46</t>
+  </si>
+  <si>
+    <t>T%D4km9!</t>
+  </si>
+  <si>
+    <t>ArBpbFMc</t>
+  </si>
+  <si>
+    <t>oAgk</t>
+  </si>
+  <si>
+    <t>kNImS133</t>
+  </si>
+  <si>
+    <t>qraweuw95</t>
+  </si>
+  <si>
+    <t>Qs42&amp;#Nx</t>
+  </si>
+  <si>
+    <t>VjRRxrXN</t>
+  </si>
+  <si>
+    <t>ueoo</t>
+  </si>
+  <si>
+    <t>StcrL389</t>
+  </si>
+  <si>
+    <t>nvomkpz46</t>
+  </si>
+  <si>
+    <t>N5u!7P%n</t>
+  </si>
+  <si>
+    <t>jMIPSJoG</t>
+  </si>
+  <si>
+    <t>PcRk</t>
+  </si>
+  <si>
+    <t>XwAza117</t>
+  </si>
+  <si>
+    <t>chrrhgm45</t>
+  </si>
+  <si>
+    <t>V&amp;7a#yT2</t>
+  </si>
+  <si>
+    <t>XfnVKMys</t>
+  </si>
+  <si>
+    <t>aYhX</t>
+  </si>
+  <si>
+    <t>sVQmP200</t>
+  </si>
+  <si>
+    <t>gyrjiem33</t>
+  </si>
+  <si>
+    <t>m$&amp;y2GH9</t>
+  </si>
+  <si>
+    <t>XpEgOxTT</t>
+  </si>
+  <si>
+    <t>mjGZ</t>
+  </si>
+  <si>
+    <t>ewbVq834</t>
+  </si>
+  <si>
+    <t>wdhfgky90</t>
+  </si>
+  <si>
+    <t>Gf&amp;m9#3S</t>
+  </si>
+  <si>
+    <t>JTvfXRsY</t>
+  </si>
+  <si>
+    <t>qyAm</t>
+  </si>
+  <si>
+    <t>JjqAC825</t>
+  </si>
+  <si>
+    <t>rfcwakg29</t>
+  </si>
+  <si>
+    <t>U28r$W&amp;a</t>
+  </si>
+  <si>
+    <t>kKtemfbI</t>
+  </si>
+  <si>
+    <t>qHsu</t>
+  </si>
+  <si>
+    <t>MCYbS352</t>
+  </si>
+  <si>
+    <t>zlztkft69</t>
+  </si>
+  <si>
+    <t>Wt8#5N&amp;m</t>
+  </si>
+  <si>
+    <t>uRuUfYJL</t>
+  </si>
+  <si>
+    <t>auie</t>
+  </si>
+  <si>
+    <t>PkaGP273</t>
+  </si>
+  <si>
+    <t>nnljccf74</t>
+  </si>
+  <si>
+    <t>bT$6%Dw9</t>
+  </si>
+  <si>
+    <t>iUuCoqrC</t>
+  </si>
+  <si>
+    <t>CtMa</t>
+  </si>
+  <si>
+    <t>HWAnk167</t>
+  </si>
+  <si>
+    <t>cbxhkth25</t>
+  </si>
+  <si>
+    <t>Pn2%4f&amp;B</t>
+  </si>
+  <si>
+    <t>jsoVqMpX</t>
+  </si>
+  <si>
+    <t>SSCw</t>
   </si>
 </sst>
 </file>
@@ -622,10 +607,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H15"/>
+      <selection activeCell="A1" sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -661,7 +646,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231011212</v>
+        <v>23102867</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -687,7 +672,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231011211</v>
+        <v>23102866</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -713,7 +698,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231011210</v>
+        <v>23102865</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -739,7 +724,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231011209</v>
+        <v>23102864</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -765,7 +750,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>231011208</v>
+        <v>23102863</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -791,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>231011207</v>
+        <v>23102862</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -817,7 +802,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="2">
-        <v>231011206</v>
+        <v>23102861</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
@@ -843,7 +828,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>231011205</v>
+        <v>23102860</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
@@ -869,7 +854,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2">
-        <v>231011204</v>
+        <v>23102859</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>51</v>
@@ -895,7 +880,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="2">
-        <v>231011203</v>
+        <v>23102858</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>56</v>
@@ -921,7 +906,7 @@
         <v>60</v>
       </c>
       <c r="B12" s="2">
-        <v>231011202</v>
+        <v>23102857</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>61</v>
@@ -947,7 +932,7 @@
         <v>65</v>
       </c>
       <c r="B13" s="2">
-        <v>231011201</v>
+        <v>23102856</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>66</v>
@@ -973,7 +958,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="2">
-        <v>231011200</v>
+        <v>23102855</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>71</v>
@@ -991,32 +976,6 @@
         <v>74</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="2">
-        <v>231011199</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForMcqExamwithContentSection.xlsx
+++ b/download/bulkUserCredentialForMcqExamwithContentSection.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,205 +41,220 @@
     <t>Role</t>
   </si>
   <si>
-    <t>wHzCP787</t>
-  </si>
-  <si>
-    <t>qmlznnr19</t>
-  </si>
-  <si>
-    <t>Wb9%G!m3</t>
+    <t>SYCeF769</t>
+  </si>
+  <si>
+    <t>qxccgww29</t>
+  </si>
+  <si>
+    <t>j!23M#Eh</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>jOcWgytr</t>
-  </si>
-  <si>
-    <t>Xcmq</t>
+    <t>oJVTlTfu</t>
+  </si>
+  <si>
+    <t>mIfL</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>GbKze769</t>
-  </si>
-  <si>
-    <t>hwuazkk64</t>
-  </si>
-  <si>
-    <t>q29#VQ!u</t>
-  </si>
-  <si>
-    <t>zbJvSuxA</t>
-  </si>
-  <si>
-    <t>EvAS</t>
-  </si>
-  <si>
-    <t>wyJnJ700</t>
-  </si>
-  <si>
-    <t>cbsegfy45</t>
-  </si>
-  <si>
-    <t>c92Z%!bK</t>
-  </si>
-  <si>
-    <t>gfPlNKBQ</t>
-  </si>
-  <si>
-    <t>tmsq</t>
-  </si>
-  <si>
-    <t>DKgWk194</t>
-  </si>
-  <si>
-    <t>rxcurlr46</t>
-  </si>
-  <si>
-    <t>T%D4km9!</t>
-  </si>
-  <si>
-    <t>ArBpbFMc</t>
-  </si>
-  <si>
-    <t>oAgk</t>
-  </si>
-  <si>
-    <t>kNImS133</t>
-  </si>
-  <si>
-    <t>qraweuw95</t>
-  </si>
-  <si>
-    <t>Qs42&amp;#Nx</t>
-  </si>
-  <si>
-    <t>VjRRxrXN</t>
-  </si>
-  <si>
-    <t>ueoo</t>
-  </si>
-  <si>
-    <t>StcrL389</t>
-  </si>
-  <si>
-    <t>nvomkpz46</t>
-  </si>
-  <si>
-    <t>N5u!7P%n</t>
-  </si>
-  <si>
-    <t>jMIPSJoG</t>
-  </si>
-  <si>
-    <t>PcRk</t>
-  </si>
-  <si>
-    <t>XwAza117</t>
-  </si>
-  <si>
-    <t>chrrhgm45</t>
-  </si>
-  <si>
-    <t>V&amp;7a#yT2</t>
-  </si>
-  <si>
-    <t>XfnVKMys</t>
-  </si>
-  <si>
-    <t>aYhX</t>
-  </si>
-  <si>
-    <t>sVQmP200</t>
-  </si>
-  <si>
-    <t>gyrjiem33</t>
-  </si>
-  <si>
-    <t>m$&amp;y2GH9</t>
-  </si>
-  <si>
-    <t>XpEgOxTT</t>
-  </si>
-  <si>
-    <t>mjGZ</t>
-  </si>
-  <si>
-    <t>ewbVq834</t>
-  </si>
-  <si>
-    <t>wdhfgky90</t>
-  </si>
-  <si>
-    <t>Gf&amp;m9#3S</t>
-  </si>
-  <si>
-    <t>JTvfXRsY</t>
-  </si>
-  <si>
-    <t>qyAm</t>
-  </si>
-  <si>
-    <t>JjqAC825</t>
-  </si>
-  <si>
-    <t>rfcwakg29</t>
-  </si>
-  <si>
-    <t>U28r$W&amp;a</t>
-  </si>
-  <si>
-    <t>kKtemfbI</t>
-  </si>
-  <si>
-    <t>qHsu</t>
-  </si>
-  <si>
-    <t>MCYbS352</t>
-  </si>
-  <si>
-    <t>zlztkft69</t>
-  </si>
-  <si>
-    <t>Wt8#5N&amp;m</t>
-  </si>
-  <si>
-    <t>uRuUfYJL</t>
-  </si>
-  <si>
-    <t>auie</t>
-  </si>
-  <si>
-    <t>PkaGP273</t>
-  </si>
-  <si>
-    <t>nnljccf74</t>
-  </si>
-  <si>
-    <t>bT$6%Dw9</t>
-  </si>
-  <si>
-    <t>iUuCoqrC</t>
-  </si>
-  <si>
-    <t>CtMa</t>
-  </si>
-  <si>
-    <t>HWAnk167</t>
-  </si>
-  <si>
-    <t>cbxhkth25</t>
-  </si>
-  <si>
-    <t>Pn2%4f&amp;B</t>
-  </si>
-  <si>
-    <t>jsoVqMpX</t>
-  </si>
-  <si>
-    <t>SSCw</t>
+    <t>jRLqW377</t>
+  </si>
+  <si>
+    <t>htquedi82</t>
+  </si>
+  <si>
+    <t>k%3zF!7U</t>
+  </si>
+  <si>
+    <t>KZJkOnKv</t>
+  </si>
+  <si>
+    <t>qPEy</t>
+  </si>
+  <si>
+    <t>wPvjB865</t>
+  </si>
+  <si>
+    <t>hqwqkod19</t>
+  </si>
+  <si>
+    <t>eb&amp;!R87K</t>
+  </si>
+  <si>
+    <t>zRcyXxst</t>
+  </si>
+  <si>
+    <t>rIQZ</t>
+  </si>
+  <si>
+    <t>EFPwP221</t>
+  </si>
+  <si>
+    <t>yrqgslj50</t>
+  </si>
+  <si>
+    <t>F&amp;y85Xv#</t>
+  </si>
+  <si>
+    <t>ynYWURdu</t>
+  </si>
+  <si>
+    <t>MTES</t>
+  </si>
+  <si>
+    <t>UTsTi699</t>
+  </si>
+  <si>
+    <t>umanfgk41</t>
+  </si>
+  <si>
+    <t>gw9C2#M&amp;</t>
+  </si>
+  <si>
+    <t>DyhZKWgN</t>
+  </si>
+  <si>
+    <t>QjGN</t>
+  </si>
+  <si>
+    <t>casVL336</t>
+  </si>
+  <si>
+    <t>tcaxsrp63</t>
+  </si>
+  <si>
+    <t>r!S7Xu#9</t>
+  </si>
+  <si>
+    <t>BSOAYBKy</t>
+  </si>
+  <si>
+    <t>PySb</t>
+  </si>
+  <si>
+    <t>vMlQd599</t>
+  </si>
+  <si>
+    <t>iksdpjl84</t>
+  </si>
+  <si>
+    <t>e7TaC4#%</t>
+  </si>
+  <si>
+    <t>coQVrLMJ</t>
+  </si>
+  <si>
+    <t>RTrb</t>
+  </si>
+  <si>
+    <t>rciNa939</t>
+  </si>
+  <si>
+    <t>npaoyya66</t>
+  </si>
+  <si>
+    <t>Q!7#Nw4s</t>
+  </si>
+  <si>
+    <t>ZuWapiJN</t>
+  </si>
+  <si>
+    <t>JhVj</t>
+  </si>
+  <si>
+    <t>MbqPy726</t>
+  </si>
+  <si>
+    <t>lzxakcl47</t>
+  </si>
+  <si>
+    <t>ge4Y#W$2</t>
+  </si>
+  <si>
+    <t>NlEPcDEe</t>
+  </si>
+  <si>
+    <t>OkMy</t>
+  </si>
+  <si>
+    <t>gJZZA516</t>
+  </si>
+  <si>
+    <t>xqdpbar75</t>
+  </si>
+  <si>
+    <t>T8!#yx7C</t>
+  </si>
+  <si>
+    <t>tywLTPaQ</t>
+  </si>
+  <si>
+    <t>euOK</t>
+  </si>
+  <si>
+    <t>kweqP129</t>
+  </si>
+  <si>
+    <t>maimfik57</t>
+  </si>
+  <si>
+    <t>mGe6!A2#</t>
+  </si>
+  <si>
+    <t>AqFzNIKI</t>
+  </si>
+  <si>
+    <t>vsWb</t>
+  </si>
+  <si>
+    <t>TJEhz486</t>
+  </si>
+  <si>
+    <t>xcrdpwo42</t>
+  </si>
+  <si>
+    <t>M9vN&amp;!6c</t>
+  </si>
+  <si>
+    <t>jDqrXVFr</t>
+  </si>
+  <si>
+    <t>YtXc</t>
+  </si>
+  <si>
+    <t>QEDtU448</t>
+  </si>
+  <si>
+    <t>yjafghu82</t>
+  </si>
+  <si>
+    <t>tK&amp;6M2$s</t>
+  </si>
+  <si>
+    <t>MUfzORrz</t>
+  </si>
+  <si>
+    <t>MqSi</t>
+  </si>
+  <si>
+    <t>sGDpu301</t>
+  </si>
+  <si>
+    <t>txqeywb76</t>
+  </si>
+  <si>
+    <t>R7rhF$2&amp;</t>
+  </si>
+  <si>
+    <t>fwRmmbSj</t>
+  </si>
+  <si>
+    <t>SDaG</t>
   </si>
 </sst>
 </file>
@@ -607,10 +622,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H14"/>
+      <selection activeCell="A1" sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -646,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23102867</v>
+        <v>231102258</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -672,7 +687,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>23102866</v>
+        <v>231102257</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -698,7 +713,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>23102865</v>
+        <v>231102256</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -724,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>23102864</v>
+        <v>231102255</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -750,7 +765,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>23102863</v>
+        <v>231102254</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -776,7 +791,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>23102862</v>
+        <v>231102253</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -802,7 +817,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="2">
-        <v>23102861</v>
+        <v>231102252</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
@@ -828,7 +843,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>23102860</v>
+        <v>231102251</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
@@ -854,7 +869,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2">
-        <v>23102859</v>
+        <v>231102250</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>51</v>
@@ -880,7 +895,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="2">
-        <v>23102858</v>
+        <v>231102249</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>56</v>
@@ -906,7 +921,7 @@
         <v>60</v>
       </c>
       <c r="B12" s="2">
-        <v>23102857</v>
+        <v>231102248</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>61</v>
@@ -932,7 +947,7 @@
         <v>65</v>
       </c>
       <c r="B13" s="2">
-        <v>23102856</v>
+        <v>231102247</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>66</v>
@@ -958,7 +973,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="2">
-        <v>23102855</v>
+        <v>231102246</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>71</v>
@@ -976,6 +991,32 @@
         <v>74</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2">
+        <v>231102245</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForMcqExamwithContentSection.xlsx
+++ b/download/bulkUserCredentialForMcqExamwithContentSection.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,220 +41,121 @@
     <t>Role</t>
   </si>
   <si>
-    <t>SYCeF769</t>
-  </si>
-  <si>
-    <t>qxccgww29</t>
-  </si>
-  <si>
-    <t>j!23M#Eh</t>
+    <t>CIO12072</t>
+  </si>
+  <si>
+    <t>candidatepfm12072</t>
+  </si>
+  <si>
+    <t>Elumina@194</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>oJVTlTfu</t>
-  </si>
-  <si>
-    <t>mIfL</t>
-  </si>
-  <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>jRLqW377</t>
-  </si>
-  <si>
-    <t>htquedi82</t>
-  </si>
-  <si>
-    <t>k%3zF!7U</t>
-  </si>
-  <si>
-    <t>KZJkOnKv</t>
-  </si>
-  <si>
-    <t>qPEy</t>
-  </si>
-  <si>
-    <t>wPvjB865</t>
-  </si>
-  <si>
-    <t>hqwqkod19</t>
-  </si>
-  <si>
-    <t>eb&amp;!R87K</t>
-  </si>
-  <si>
-    <t>zRcyXxst</t>
-  </si>
-  <si>
-    <t>rIQZ</t>
-  </si>
-  <si>
-    <t>EFPwP221</t>
-  </si>
-  <si>
-    <t>yrqgslj50</t>
-  </si>
-  <si>
-    <t>F&amp;y85Xv#</t>
-  </si>
-  <si>
-    <t>ynYWURdu</t>
-  </si>
-  <si>
-    <t>MTES</t>
-  </si>
-  <si>
-    <t>UTsTi699</t>
-  </si>
-  <si>
-    <t>umanfgk41</t>
-  </si>
-  <si>
-    <t>gw9C2#M&amp;</t>
-  </si>
-  <si>
-    <t>DyhZKWgN</t>
-  </si>
-  <si>
-    <t>QjGN</t>
-  </si>
-  <si>
-    <t>casVL336</t>
-  </si>
-  <si>
-    <t>tcaxsrp63</t>
-  </si>
-  <si>
-    <t>r!S7Xu#9</t>
-  </si>
-  <si>
-    <t>BSOAYBKy</t>
-  </si>
-  <si>
-    <t>PySb</t>
-  </si>
-  <si>
-    <t>vMlQd599</t>
-  </si>
-  <si>
-    <t>iksdpjl84</t>
-  </si>
-  <si>
-    <t>e7TaC4#%</t>
-  </si>
-  <si>
-    <t>coQVrLMJ</t>
-  </si>
-  <si>
-    <t>RTrb</t>
-  </si>
-  <si>
-    <t>rciNa939</t>
-  </si>
-  <si>
-    <t>npaoyya66</t>
-  </si>
-  <si>
-    <t>Q!7#Nw4s</t>
-  </si>
-  <si>
-    <t>ZuWapiJN</t>
-  </si>
-  <si>
-    <t>JhVj</t>
-  </si>
-  <si>
-    <t>MbqPy726</t>
-  </si>
-  <si>
-    <t>lzxakcl47</t>
-  </si>
-  <si>
-    <t>ge4Y#W$2</t>
-  </si>
-  <si>
-    <t>NlEPcDEe</t>
-  </si>
-  <si>
-    <t>OkMy</t>
-  </si>
-  <si>
-    <t>gJZZA516</t>
-  </si>
-  <si>
-    <t>xqdpbar75</t>
-  </si>
-  <si>
-    <t>T8!#yx7C</t>
-  </si>
-  <si>
-    <t>tywLTPaQ</t>
-  </si>
-  <si>
-    <t>euOK</t>
-  </si>
-  <si>
-    <t>kweqP129</t>
-  </si>
-  <si>
-    <t>maimfik57</t>
-  </si>
-  <si>
-    <t>mGe6!A2#</t>
-  </si>
-  <si>
-    <t>AqFzNIKI</t>
-  </si>
-  <si>
-    <t>vsWb</t>
-  </si>
-  <si>
-    <t>TJEhz486</t>
-  </si>
-  <si>
-    <t>xcrdpwo42</t>
-  </si>
-  <si>
-    <t>M9vN&amp;!6c</t>
-  </si>
-  <si>
-    <t>jDqrXVFr</t>
-  </si>
-  <si>
-    <t>YtXc</t>
-  </si>
-  <si>
-    <t>QEDtU448</t>
-  </si>
-  <si>
-    <t>yjafghu82</t>
-  </si>
-  <si>
-    <t>tK&amp;6M2$s</t>
-  </si>
-  <si>
-    <t>MUfzORrz</t>
-  </si>
-  <si>
-    <t>MqSi</t>
-  </si>
-  <si>
-    <t>sGDpu301</t>
-  </si>
-  <si>
-    <t>txqeywb76</t>
-  </si>
-  <si>
-    <t>R7rhF$2&amp;</t>
-  </si>
-  <si>
-    <t>fwRmmbSj</t>
-  </si>
-  <si>
-    <t>SDaG</t>
+    <t>PFTMM</t>
+  </si>
+  <si>
+    <t>CIO12071</t>
+  </si>
+  <si>
+    <t>candidatepfm12071</t>
+  </si>
+  <si>
+    <t>Elumina@193</t>
+  </si>
+  <si>
+    <t>CIO12070</t>
+  </si>
+  <si>
+    <t>candidatepfm12070</t>
+  </si>
+  <si>
+    <t>Elumina@192</t>
+  </si>
+  <si>
+    <t>CIO12069</t>
+  </si>
+  <si>
+    <t>candidatepfm12069</t>
+  </si>
+  <si>
+    <t>Elumina@191</t>
+  </si>
+  <si>
+    <t>CIO12068</t>
+  </si>
+  <si>
+    <t>candidatepfm12068</t>
+  </si>
+  <si>
+    <t>Elumina@190</t>
+  </si>
+  <si>
+    <t>CIO12067</t>
+  </si>
+  <si>
+    <t>candidatepfm12067</t>
+  </si>
+  <si>
+    <t>Elumina@189</t>
+  </si>
+  <si>
+    <t>CIO12066</t>
+  </si>
+  <si>
+    <t>candidatepfm12066</t>
+  </si>
+  <si>
+    <t>Elumina@188</t>
+  </si>
+  <si>
+    <t>CIO12065</t>
+  </si>
+  <si>
+    <t>candidatepfm12065</t>
+  </si>
+  <si>
+    <t>Elumina@187</t>
+  </si>
+  <si>
+    <t>CIO12064</t>
+  </si>
+  <si>
+    <t>candidatepfm12064</t>
+  </si>
+  <si>
+    <t>Elumina@186</t>
+  </si>
+  <si>
+    <t>CIO12063</t>
+  </si>
+  <si>
+    <t>candidatepfm12063</t>
+  </si>
+  <si>
+    <t>Elumina@185</t>
+  </si>
+  <si>
+    <t>CIO12062</t>
+  </si>
+  <si>
+    <t>candidatepfm12062</t>
+  </si>
+  <si>
+    <t>Elumina@184</t>
+  </si>
+  <si>
+    <t>CIO12061</t>
+  </si>
+  <si>
+    <t>candidatepfm12061</t>
+  </si>
+  <si>
+    <t>Elumina@183</t>
   </si>
 </sst>
 </file>
@@ -622,10 +523,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H15"/>
+      <selection activeCell="A1" sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -661,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231102258</v>
+        <v>20123216</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -679,345 +580,293 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20123215</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2">
-        <v>231102257</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
-        <v>231102256</v>
+        <v>20123214</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>231102255</v>
+        <v>20123213</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2">
-        <v>231102254</v>
+        <v>20123212</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2">
-        <v>231102253</v>
+        <v>20123211</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2">
-        <v>231102252</v>
+        <v>20123210</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2">
-        <v>231102251</v>
+        <v>20123209</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2">
-        <v>231102250</v>
+        <v>20123208</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2">
-        <v>231102249</v>
+        <v>20123207</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2">
-        <v>231102248</v>
+        <v>20123206</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2">
-        <v>231102247</v>
+        <v>20123205</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="2">
-        <v>231102246</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="2">
-        <v>231102245</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
